--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelly\Desktop\Μεταπτυχιακό\Αεξάμηνο\102μηχ.λογ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>task</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Δημιουργία και σύνδεση ΒΔ</t>
   </si>
   <si>
-    <t>σε εξέλιξη</t>
-  </si>
-  <si>
     <t xml:space="preserve">Εμφάνιση σελίδας εισόδου και έλεγχος εισόδου χρήστη </t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>Διαδικασία αιτήματος διαμοιρασμού φακέλων</t>
-  </si>
-  <si>
-    <t>αναμονή για έναρξη</t>
   </si>
   <si>
     <t xml:space="preserve">Διαδικασία δημιουργίας κοινών αρχείων μετά από απάντηση στα αιτήματα διαμοιρασμού χρηστών </t>
@@ -410,7 +404,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,101 +427,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
